--- a/CaseAndFatalityDemographicsData/2021-09-24.xlsx
+++ b/CaseAndFatalityDemographicsData/2021-09-24.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\infect\NBS\Coronavirus(nCoV) 2019\Line Lists from Production\~Kenny Thursday Reports\9.16.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\infect\NBS\Coronavirus(nCoV) 2019\Line Lists from Production\~Kenny Thursday Reports\9.23.21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE4A99B-AEA3-4A53-BEBA-918C24D3AC6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B167BCC0-C77C-45D5-B7FA-C263877ECCBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="806" activeTab="5" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
+    <workbookView xWindow="2454" yWindow="2010" windowWidth="17244" windowHeight="8994" tabRatio="806" firstSheet="1" activeTab="5" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases by Age Group" sheetId="3" r:id="rId1"/>
@@ -182,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -234,25 +234,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -310,7 +297,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1154,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F742947-EAB5-4DCC-A1CA-1F4AA7362BD3}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B14"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -1183,7 +1169,7 @@
       </c>
       <c r="C2" s="9">
         <f>B2/$B$15</f>
-        <v>1.8224895206852561E-4</v>
+        <v>1.7608733932030288E-4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -1191,11 +1177,11 @@
         <v>3</v>
       </c>
       <c r="B3" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C15" si="0">B3/$B$15</f>
-        <v>2.6508938482694633E-4</v>
+        <v>2.72134978949559E-4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1203,11 +1189,11 @@
         <v>4</v>
       </c>
       <c r="B4" s="6">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>8.6154050068757554E-4</v>
+        <v>8.9644463653972375E-4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -1215,11 +1201,11 @@
         <v>5</v>
       </c>
       <c r="B5" s="6">
-        <v>423</v>
+        <v>473</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
-        <v>7.0083006113623942E-3</v>
+        <v>7.5717555907730237E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -1227,11 +1213,11 @@
         <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>1398</v>
+        <v>1526</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>2.3162184999254435E-2</v>
+        <v>2.4428116345707469E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -1239,11 +1225,11 @@
         <v>7</v>
       </c>
       <c r="B7" s="6">
-        <v>3669</v>
+        <v>3920</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>6.0788309558129132E-2</v>
+        <v>6.275112455778066E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -1251,11 +1237,11 @@
         <v>8</v>
       </c>
       <c r="B8" s="6">
-        <v>7471</v>
+        <v>7850</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>0.12378017462763226</v>
+        <v>0.12566232851494341</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -1263,11 +1249,11 @@
         <v>9</v>
       </c>
       <c r="B9" s="6">
-        <v>5870</v>
+        <v>6125</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>9.7254668058385937E-2</v>
+        <v>9.8048632121532281E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -1275,11 +1261,11 @@
         <v>10</v>
       </c>
       <c r="B10" s="6">
-        <v>7245</v>
+        <v>7496</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>0.12003578706695164</v>
+        <v>0.1199955177768173</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -1287,11 +1273,11 @@
         <v>11</v>
       </c>
       <c r="B11" s="6">
-        <v>7894</v>
+        <v>8140</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>0.13078847523899464</v>
+        <v>0.13030463109702412</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -1299,11 +1285,11 @@
         <v>12</v>
       </c>
       <c r="B12" s="6">
-        <v>7638</v>
+        <v>7825</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" si="0"/>
-        <v>0.12654704508176351</v>
+        <v>0.12526213001648817</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -1311,11 +1297,11 @@
         <v>13</v>
       </c>
       <c r="B13" s="6">
-        <v>18670</v>
+        <v>19030</v>
       </c>
       <c r="C13" s="9">
         <f t="shared" si="0"/>
-        <v>0.30932617591994299</v>
+        <v>0.30463109702412394</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -1336,7 +1322,7 @@
       </c>
       <c r="B15" s="7">
         <f>SUM(B2:B14)</f>
-        <v>60357</v>
+        <v>62469</v>
       </c>
       <c r="C15" s="12">
         <f t="shared" si="0"/>
@@ -1353,7 +1339,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -1374,11 +1360,11 @@
         <v>16</v>
       </c>
       <c r="B2" s="6">
-        <v>25226</v>
+        <v>26097</v>
       </c>
       <c r="C2" s="9">
         <f>B2/$B$5</f>
-        <v>0.41794655135278425</v>
+        <v>0.41775920856744947</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -1386,11 +1372,11 @@
         <v>17</v>
       </c>
       <c r="B3" s="6">
-        <v>35130</v>
+        <v>36371</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
-        <v>0.58203688056066405</v>
+        <v>0.58222478349261231</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1402,7 +1388,7 @@
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>1.6568086551684146E-5</v>
+        <v>1.6007939938209352E-5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -1411,7 +1397,7 @@
       </c>
       <c r="B5" s="1">
         <f>SUM(B2:B4)</f>
-        <v>60357</v>
+        <v>62469</v>
       </c>
       <c r="C5" s="13">
         <f t="shared" si="0"/>
@@ -1428,7 +1414,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -1452,11 +1438,11 @@
         <v>23</v>
       </c>
       <c r="B2" s="6">
-        <v>1192</v>
+        <v>1213</v>
       </c>
       <c r="C2" s="9">
         <f t="shared" ref="C2" si="0">B2/$B$8</f>
-        <v>1.97491591696075E-2</v>
+        <v>1.9417631145047944E-2</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
@@ -1464,11 +1450,11 @@
         <v>21</v>
       </c>
       <c r="B3" s="6">
-        <v>6133</v>
+        <v>6414</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C8" si="1">B3/$B$8</f>
-        <v>0.10161207482147887</v>
+        <v>0.10267492676367478</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
@@ -1476,11 +1462,11 @@
         <v>22</v>
       </c>
       <c r="B4" s="6">
-        <v>27112</v>
+        <v>27844</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="1"/>
-        <v>0.44919396258926059</v>
+        <v>0.4457250796395012</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
@@ -1488,55 +1474,54 @@
         <v>25</v>
       </c>
       <c r="B5" s="6">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="1"/>
-        <v>5.6000132544692417E-3</v>
-      </c>
-      <c r="G5" s="23"/>
+        <v>5.6508027981879011E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="6">
-        <v>25552</v>
+        <v>26611</v>
       </c>
       <c r="C6" s="9">
         <f>B6/$B$8</f>
-        <v>0.4233477475686333</v>
-      </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
+        <v>0.42598728969568905</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="6">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="1"/>
-        <v>4.9704259655052442E-4</v>
-      </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="24"/>
+        <v>5.4426995789911799E-4</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="23"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
@@ -1544,83 +1529,52 @@
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>60357</v>
+        <v>62469</v>
       </c>
       <c r="C8" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
+      <c r="A11" s="23"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
+      <c r="A12" s="23"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
+      <c r="A13" s="23"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
+      <c r="A14" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
